--- a/Figures/Feature Importance Table.xlsx
+++ b/Figures/Feature Importance Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F1DC8-87A0-1149-85CA-817D8EBFAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF034C4-D0F5-5B4F-BF7C-8A1CA3D63BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,12 +49,12 @@
     <t>CMA_1</t>
   </si>
   <si>
+    <t>EDUC_Post-secondary certificate or diploma</t>
+  </si>
+  <si>
     <t>MARSTAT_1</t>
   </si>
   <si>
-    <t>EDUC_Post-secondary certificate or diploma</t>
-  </si>
-  <si>
     <t>FIRMSIZE_More than 500 employees</t>
   </si>
   <si>
@@ -67,100 +67,100 @@
     <t>UNION_Union member</t>
   </si>
   <si>
+    <t>NAICS_Mining, quarrying, and oil and gas extraction</t>
+  </si>
+  <si>
     <t>NAICS_Public administration</t>
   </si>
   <si>
-    <t>NAICS_Mining, quarrying, and oil and gas extraction</t>
-  </si>
-  <si>
     <t>NAICS_Professional, scientific and technical services</t>
   </si>
   <si>
     <t>NAICS_Retail trade</t>
   </si>
   <si>
+    <t>AGE_45-49</t>
+  </si>
+  <si>
+    <t>PROV_BC</t>
+  </si>
+  <si>
+    <t>FIRMSIZE_Less than 20 employees</t>
+  </si>
+  <si>
+    <t>AGE_40-44</t>
+  </si>
+  <si>
+    <t>AGE_50-54</t>
+  </si>
+  <si>
     <t>PROV_QC</t>
   </si>
   <si>
-    <t>AGE_45-49</t>
-  </si>
-  <si>
-    <t>FIRMSIZE_Less than 20 employees</t>
-  </si>
-  <si>
-    <t>PROV_BC</t>
-  </si>
-  <si>
-    <t>AGE_40-44</t>
-  </si>
-  <si>
-    <t>AGE_50-54</t>
-  </si>
-  <si>
     <t>AGE_55-59</t>
   </si>
   <si>
     <t>AGE_35-39</t>
   </si>
   <si>
+    <t>NAICS_Finance and insurance</t>
+  </si>
+  <si>
     <t>AGE_60-64</t>
   </si>
   <si>
+    <t>AGE_30-34</t>
+  </si>
+  <si>
     <t>PROV_MB</t>
   </si>
   <si>
-    <t>AGE_30-34</t>
-  </si>
-  <si>
-    <t>NAICS_Finance and insurance</t>
-  </si>
-  <si>
     <t>FIRMSIZE_20-99 employees</t>
   </si>
   <si>
     <t>AGE_25-29</t>
   </si>
   <si>
+    <t>NAICS_Construction</t>
+  </si>
+  <si>
     <t>PROV_SK</t>
   </si>
   <si>
+    <t>NAICS_Utilities</t>
+  </si>
+  <si>
+    <t>NAICS_Manufacturing - non-durable goods</t>
+  </si>
+  <si>
     <t>NAICS_Health care and social assistance</t>
   </si>
   <si>
-    <t>NAICS_Construction</t>
-  </si>
-  <si>
-    <t>NAICS_Utilities</t>
+    <t>PROV_NB</t>
   </si>
   <si>
     <t>PROV_NS</t>
   </si>
   <si>
-    <t>NAICS_Manufacturing - non-durable goods</t>
-  </si>
-  <si>
     <t>NAICS_Wholesale trade</t>
   </si>
   <si>
-    <t>PROV_NB</t>
+    <t>NAICS_Manufacturing - durable goods</t>
   </si>
   <si>
     <t>AGE_20-24</t>
   </si>
   <si>
-    <t>NAICS_Manufacturing - durable goods</t>
-  </si>
-  <si>
     <t>NAICS_Educational services</t>
   </si>
   <si>
+    <t>NAICS_Information, culture and recreation</t>
+  </si>
+  <si>
     <t>PROV_NL</t>
   </si>
   <si>
     <t>NAICS_Transportation and warehousing</t>
-  </si>
-  <si>
-    <t>NAICS_Information, culture and recreation</t>
   </si>
   <si>
     <t>NAICS_Business, building and other support services</t>
@@ -260,16 +260,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,630 +574,630 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C56"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.2136133981364195</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.2136133981364195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4">
+        <v>0.21472640675543861</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.21472640675543861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>6.2008615313194168E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.27562201344961368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4">
+        <v>6.0832717726001982E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.27555912448144049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>5.9977905870609492E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.33559991932022321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="4">
+        <v>6.0708373284698677E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.33626749776613918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>4.6864054299369143E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.38246397361959228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="4">
+        <v>4.583808783569808E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.38210558560183733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.3539038296741139E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.41600301191633338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="4">
+        <v>3.3831082937611043E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.41593666853944838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.6286325462578908E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.44228933737891241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="4">
+        <v>2.5431107051168751E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.44136777559061707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.381108105148471E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.46610041843039712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="4">
+        <v>2.417391610861841E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.46554169169923548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.3594806996722579E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.48969522542711957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="4">
+        <v>2.3762385692521908E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.48930407739175752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>2.350446051271133E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.51319968593983101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="4">
+        <v>2.3196101741581421E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.5125001791333389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>2.270410232327846E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.53590378826310947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="4">
+        <v>2.3062043333323231E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.53556222246666207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>2.1728802885148359E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.55763259114825781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="4">
+        <v>2.2134497031238522E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.55769671949790056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>2.0313347103025119E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.57794593825128293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="4">
+        <v>2.1542730085102029E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.57923944958300255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>1.8908473657690422E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.59685441190897337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="4">
+        <v>1.9407316051534659E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.59864676563453723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>1.8209028555394989E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.61506344046436834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="4">
+        <v>1.9269833175843531E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.61791659881038075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>1.698989604319092E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.63205333650755924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="4">
+        <v>1.7237131180274621E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.63515372999065534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>1.6718164974841229E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.64877150148240048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="4">
+        <v>1.7097282376578631E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.65225101236723393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>1.6240493731209071E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.66501199521360954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="4">
+        <v>1.637184539098363E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.66862285775821761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>1.602130260263409E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.68103329781624367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="4">
+        <v>1.6091917032945071E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.68471477479116272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>1.599822702047627E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.69703152483671993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="4">
+        <v>1.578327365982456E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.70049804845098729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>1.5834846141522741E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.71286637097824268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="4">
+        <v>1.538003533125239E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.71587808378223972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>1.5212171734800779E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.72807854271304351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="4">
+        <v>1.536093826962409E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.73123902205186375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>1.4859809181687359E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.7429383518947309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="4">
+        <v>1.511487905928046E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.74635390111114419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>1.460384479045094E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.75754219668518186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="4">
+        <v>1.484726952928392E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.76120117064042814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
-        <v>1.370356701483328E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.77124576370001519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="4">
+        <v>1.4320522004363441E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.77552169264479154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
-        <v>1.225329064159599E-2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.78349905434161116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="4">
+        <v>1.219257970358042E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.78771427234837199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
-        <v>1.2126319140293759E-2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.79562537348190487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="4">
+        <v>1.190699836638613E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.79962127071475808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
-        <v>1.196370834972873E-2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.80758908183163358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="4">
+        <v>1.175355546061907E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.81137482617537715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
-        <v>1.188595411909711E-2</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.81947503595073068</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="4">
+        <v>1.156452029567822E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.82293934647105538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
-        <v>1.17682797972974E-2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.83124331574802812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="4">
+        <v>1.147623186671777E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.83441557833777313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
-        <v>1.072415922820032E-2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.84196747497622848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="4">
+        <v>1.142267247428831E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.84583825081206143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
-        <v>1.0302098337657779E-2</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.85226957331388631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="4">
+        <v>1.016385638872533E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.85600210720078673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
-        <v>9.9727709689450932E-3</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.86224234428283142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="4">
+        <v>9.7210355331658737E-3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.86572314273395257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
-        <v>9.6953586995172005E-3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.87193770298234863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="4">
+        <v>9.5186133229557615E-3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.87524175605690835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
-        <v>9.6909456932782086E-3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.88162864867562685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="4">
+        <v>9.2799621006243605E-3</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.88452171815753267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
-        <v>9.0318069808299015E-3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.8906604556564568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="4">
+        <v>9.2330793215838168E-3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.89375479747911646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2">
-        <v>8.892064984746078E-3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.89955252064120284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="4">
+        <v>8.9709074521477864E-3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.90272570493126425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
-        <v>8.7945784041728592E-3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.90834709904537569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="4">
+        <v>8.7561555173162088E-3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.91148186044858048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2">
-        <v>8.696605296339659E-3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.91704370434171534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="4">
+        <v>8.5663475697034756E-3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.92004820801828391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2">
-        <v>8.5901594931755108E-3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.92563386383489088</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="4">
+        <v>8.2660807326991274E-3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.92831428875098299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2">
-        <v>8.4568453873732456E-3</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.93409070922226412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="4">
+        <v>8.1515877025874258E-3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.93646587645357038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2">
-        <v>8.2611783134457131E-3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.94235188753570986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="4">
+        <v>7.8984313427919155E-3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.94436430779636227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2">
-        <v>7.9442281113657701E-3</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.95029611564707561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="4">
+        <v>7.5876573809389794E-3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.9519519651773013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2">
-        <v>7.7732146001065257E-3</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.9580693302471821</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="4">
+        <v>7.4273698194586924E-3</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.95937933499675998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
-        <v>7.3044740129496067E-3</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.96537380426013175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="B45" s="4">
+        <v>7.311435543864239E-3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.96669077054062424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2">
-        <v>6.1982780085709181E-3</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.97157208226870262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="4">
+        <v>6.4558990302458381E-3</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.97314666957087004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
-        <v>5.4938556912863751E-3</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.97706593795998897</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="4">
+        <v>5.1066177220577191E-3</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.97825328729292771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2">
-        <v>5.1115690971665611E-3</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.98217750705715556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="4">
+        <v>4.6644704055881017E-3</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.98291775769851586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2">
-        <v>4.5049124342369283E-3</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.98668241949139246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="4">
+        <v>4.2639654005380296E-3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.98718172309905394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2">
-        <v>3.8356369626889701E-3</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.99051805645408142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="4">
+        <v>3.708882188527838E-3</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.99089060528758177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2">
-        <v>2.7291296590909852E-3</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.99324718611317242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="4">
+        <v>2.6947320407402541E-3</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.99358533732832199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2">
-        <v>2.3977078070738221E-3</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.99564489392024624</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="4">
+        <v>2.335740002692151E-3</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.99592107733101409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2">
-        <v>2.0079586949333021E-3</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.99765285261517955</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="4">
+        <v>1.910626865545464E-3</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.99783170419655953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2">
-        <v>1.41536332008694E-3</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.99906821593526651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="4">
+        <v>1.2152231034341049E-3</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.99904692729999367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2">
-        <v>9.1103112100965789E-4</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.99997924705627617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="4">
+        <v>9.2115240848781752E-4</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.99996807970848145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2">
-        <v>2.075294372414659E-5</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
+      <c r="B56" s="4">
+        <v>3.1920291518368262E-5</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.99999999999999978</v>
       </c>
     </row>
   </sheetData>
